--- a/Boston Neighborhood Coordinates.xlsx
+++ b/Boston Neighborhood Coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/419e6c8ee6dd4c48/Documents/Programming Practice/IBM Data Science/9. Applied Data Science Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{EBD960A9-74C7-46BC-8DDD-EE28C39207F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D3371D49-43E4-456F-9EB9-32E5F61B53AE}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{EBD960A9-74C7-46BC-8DDD-EE28C39207F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{044F31AE-2217-4088-BB0A-52AF1473284B}"/>
   <bookViews>
-    <workbookView xWindow="-10128" yWindow="5568" windowWidth="17280" windowHeight="8964" xr2:uid="{BEDA6C64-28A8-4E30-B811-5D188A90ADE8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BEDA6C64-28A8-4E30-B811-5D188A90ADE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Neighborhood</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Central Square</t>
+  </si>
+  <si>
+    <t>Seaport</t>
   </si>
 </sst>
 </file>
@@ -239,16 +242,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="4">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="00000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -280,110 +277,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="00000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -398,14 +291,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41154A78-296F-4524-9BD1-20CF65B9212E}" name="Table1" displayName="Table1" ref="A1:D36" totalsRowShown="0">
-  <autoFilter ref="A1:D36" xr:uid="{95E65AED-4214-4922-92AE-AE31B45965D7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41154A78-296F-4524-9BD1-20CF65B9212E}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0">
+  <autoFilter ref="A1:D37" xr:uid="{95E65AED-4214-4922-92AE-AE31B45965D7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D33">
     <sortCondition ref="B1:B33"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3415F689-4620-40BC-ABCD-FED344BF9D75}" name="Neighborhood"/>
-    <tableColumn id="2" xr3:uid="{3DAC5A11-28F3-4AE5-810E-0450D54ECDDF}" name="Zip Code" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{3DAC5A11-28F3-4AE5-810E-0450D54ECDDF}" name="Zip Code" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{B55B9C40-8547-4BBB-9086-19DDD047E893}" name="Latitude"/>
     <tableColumn id="4" xr3:uid="{B9CC824C-5CDA-428F-A28B-E2493646E897}" name="Longitude"/>
   </tableColumns>
@@ -710,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5E775F-810C-4D93-AFF8-757AD7649EEE}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1222,16 +1115,28 @@
         <v>-71.080381000000003</v>
       </c>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37">
+        <v>42.349240000000002</v>
+      </c>
+      <c r="D37">
+        <v>-71.041493000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B14:B31">
-    <cfRule type="duplicateValues" dxfId="2" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B36">
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  <conditionalFormatting sqref="B2:B37">
+    <cfRule type="duplicateValues" dxfId="2" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A36">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  <conditionalFormatting sqref="A2:A37">
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Boston Neighborhood Coordinates.xlsx
+++ b/Boston Neighborhood Coordinates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/419e6c8ee6dd4c48/Documents/Programming Practice/IBM Data Science/9. Applied Data Science Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/419e6c8ee6dd4c48/Documents/GitHub/Data-Science-with-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{EBD960A9-74C7-46BC-8DDD-EE28C39207F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{044F31AE-2217-4088-BB0A-52AF1473284B}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{F1894E72-A77B-4900-847C-858EC4160AA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A28F75B-0765-412A-9A3C-193BDC5D2A46}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BEDA6C64-28A8-4E30-B811-5D188A90ADE8}"/>
+    <workbookView xWindow="4824" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{BEDA6C64-28A8-4E30-B811-5D188A90ADE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Neighborhood</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Back Bay</t>
   </si>
   <si>
-    <t>Bay Village</t>
-  </si>
-  <si>
     <t>Beacon Hill</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve">Harvard Square </t>
-  </si>
-  <si>
-    <t>Kendall Square</t>
   </si>
   <si>
     <t xml:space="preserve">North Cambridge </t>
@@ -291,10 +285,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41154A78-296F-4524-9BD1-20CF65B9212E}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0">
-  <autoFilter ref="A1:D37" xr:uid="{95E65AED-4214-4922-92AE-AE31B45965D7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D33">
-    <sortCondition ref="B1:B33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41154A78-296F-4524-9BD1-20CF65B9212E}" name="Table1" displayName="Table1" ref="A1:D35" totalsRowShown="0">
+  <autoFilter ref="A1:D35" xr:uid="{95E65AED-4214-4922-92AE-AE31B45965D7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
+    <sortCondition ref="B1:B31"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3415F689-4620-40BC-ABCD-FED344BF9D75}" name="Neighborhood"/>
@@ -603,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5E775F-810C-4D93-AFF8-757AD7649EEE}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +627,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>2111</v>
@@ -647,7 +641,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>2114</v>
@@ -661,422 +655,418 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="C4">
-        <v>42.353099999999998</v>
+        <v>42.337800000000001</v>
       </c>
       <c r="D4">
-        <v>-71.076499999999996</v>
+        <v>-71.070599999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="C5">
-        <v>42.337800000000001</v>
+        <v>42.321800000000003</v>
       </c>
       <c r="D5">
-        <v>-71.070599999999999</v>
+        <v>-71.088399999999993</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="C6">
-        <v>42.321800000000003</v>
+        <v>42.331899999999997</v>
       </c>
       <c r="D6">
-        <v>-71.088399999999993</v>
+        <v>-71.098799999999997</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>2120</v>
+        <v>2126</v>
       </c>
       <c r="C7">
-        <v>42.331899999999997</v>
+        <v>42.277099999999997</v>
       </c>
       <c r="D7">
-        <v>-71.098799999999997</v>
+        <v>-71.091399999999993</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="C8">
-        <v>42.277099999999997</v>
+        <v>42.336500000000001</v>
       </c>
       <c r="D8">
-        <v>-71.091399999999993</v>
+        <v>-71.034899999999993</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="C9">
-        <v>42.336500000000001</v>
+        <v>42.374499999999998</v>
       </c>
       <c r="D9">
-        <v>-71.034899999999993</v>
+        <v>-71.031999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="C10">
-        <v>42.369500000000002</v>
+        <v>42.3795</v>
       </c>
       <c r="D10">
-        <v>-71.020099999999999</v>
+        <v>-71.064599999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="C11">
-        <v>42.3795</v>
+        <v>42.309699999999999</v>
       </c>
       <c r="D11">
-        <v>-71.064599999999999</v>
+        <v>-71.115099999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="C12">
-        <v>42.309699999999999</v>
+        <v>42.283200000000001</v>
       </c>
       <c r="D12">
-        <v>-71.115099999999998</v>
+        <v>-71.126999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="C13">
-        <v>42.283200000000001</v>
+        <v>42.279800000000002</v>
       </c>
       <c r="D13">
-        <v>-71.126999999999995</v>
+        <v>-71.162700000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="C14">
-        <v>42.279800000000002</v>
+        <v>42.349299999999999</v>
       </c>
       <c r="D14">
-        <v>-71.162700000000001</v>
+        <v>-71.13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="C15">
-        <v>42.359299999999998</v>
+        <v>42.35</v>
       </c>
       <c r="D15">
-        <v>-71.126999999999995</v>
+        <v>-71.158000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="C16">
-        <v>42.346400000000003</v>
+        <v>42.252800000000001</v>
       </c>
       <c r="D16">
-        <v>-71.162700000000001</v>
+        <v>-71.13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
-        <v>2136</v>
+        <v>2140</v>
       </c>
       <c r="C17">
-        <v>42.252800000000001</v>
+        <v>42.393253999999999</v>
       </c>
       <c r="D17">
-        <v>-71.13</v>
+        <v>-71.134540000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
-        <v>2140</v>
+        <v>2445</v>
       </c>
       <c r="C18">
-        <v>42.393253999999999</v>
+        <v>42.332799999999999</v>
       </c>
       <c r="D18">
-        <v>-71.134540000000001</v>
+        <v>-71.138900000000007</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1">
-        <v>2142</v>
+        <v>2467</v>
       </c>
       <c r="C19">
-        <v>42.362490000000001</v>
+        <v>42.327800000000003</v>
       </c>
       <c r="D19">
-        <v>-71.080492000000007</v>
+        <v>-71.162700000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2445</v>
+        <v>43</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>42.332799999999999</v>
+        <v>42.357349999999997</v>
       </c>
       <c r="D20">
-        <v>-71.138900000000007</v>
+        <v>-71.056190000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2467</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C21">
-        <v>42.317799999999998</v>
+        <v>42.36459</v>
       </c>
       <c r="D21">
-        <v>-71.162700000000001</v>
+        <v>-71.053430000000006</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>42.357349999999997</v>
+        <v>42.359760000000001</v>
       </c>
       <c r="D22">
-        <v>-71.056190000000001</v>
+        <v>-71.067750000000004</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C23">
-        <v>42.36459</v>
+        <v>42.351469999999999</v>
       </c>
       <c r="D23">
-        <v>-71.053430000000006</v>
+        <v>-71.080460000000002</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24">
-        <v>42.359760000000001</v>
+        <v>42.298099999999998</v>
       </c>
       <c r="D24">
-        <v>-71.067750000000004</v>
+        <v>-71.062470000000005</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25">
-        <v>42.351469999999999</v>
+        <v>42.372518999999997</v>
       </c>
       <c r="D25">
-        <v>-71.080460000000002</v>
+        <v>-71.120221000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>42.298099999999998</v>
+        <v>42.367699999999999</v>
       </c>
       <c r="D26">
-        <v>-71.062470000000005</v>
+        <v>-71.081000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C27">
-        <v>42.372518999999997</v>
+        <v>42.344144</v>
       </c>
       <c r="D27">
-        <v>-71.120221000000001</v>
+        <v>-71.095746000000005</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>42.367505999999999</v>
+        <v>42.389358000000001</v>
       </c>
       <c r="D28">
-        <v>-71.079440000000005</v>
+        <v>-71.119399000000001</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>42.344144</v>
+        <v>42.377018</v>
       </c>
       <c r="D29">
-        <v>-71.095746000000005</v>
+        <v>-71.135920999999996</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C30">
-        <v>42.389358000000001</v>
+        <v>42.373379</v>
       </c>
       <c r="D30">
-        <v>-71.119399000000001</v>
+        <v>-71.098219</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C31">
-        <v>42.377018</v>
+        <v>42.365088</v>
       </c>
       <c r="D31">
-        <v>-71.135920999999996</v>
+        <v>-71.103352000000001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32">
-        <v>42.373379</v>
+        <v>42.396256000000001</v>
       </c>
       <c r="D32">
-        <v>-71.098219</v>
+        <v>-71.122197</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B33" s="1"/>
       <c r="C33">
-        <v>42.365088</v>
+        <v>42.390898</v>
       </c>
       <c r="D33">
-        <v>-71.103352000000001</v>
+        <v>-71.095826000000002</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1085,58 +1075,34 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34">
-        <v>42.396256000000001</v>
+        <v>42.393093</v>
       </c>
       <c r="D34">
-        <v>-71.122197</v>
+        <v>-71.080381000000003</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35">
-        <v>42.390898</v>
+        <v>42.349240000000002</v>
       </c>
       <c r="D35">
-        <v>-71.095826000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36">
-        <v>42.393093</v>
-      </c>
-      <c r="D36">
-        <v>-71.080381000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37">
-        <v>42.349240000000002</v>
-      </c>
-      <c r="D37">
         <v>-71.041493000000003</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B14:B31">
-    <cfRule type="duplicateValues" dxfId="3" priority="14"/>
+  <conditionalFormatting sqref="B13:B29">
+    <cfRule type="duplicateValues" dxfId="3" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B37">
-    <cfRule type="duplicateValues" dxfId="2" priority="16"/>
+  <conditionalFormatting sqref="B2:B35">
+    <cfRule type="duplicateValues" dxfId="2" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A37">
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  <conditionalFormatting sqref="A2:A35">
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
